--- a/biology/Zoologie/Calocheiridius_centralis/Calocheiridius_centralis.xlsx
+++ b/biology/Zoologie/Calocheiridius_centralis/Calocheiridius_centralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calocheiridius centralis est une espèce de pseudoscorpions de la famille des Olpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afghanistan, en Ouzbékistan, au Turkménistan, en Iran, au Pakistan, en Inde et en Azerbaïdjan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afghanistan, en Ouzbékistan, au Turkménistan, en Iran, au Pakistan, en Inde et en Azerbaïdjan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Calocheiridius centralis centralis (Beier, 1952)
 Calocheiridius centralis nataliae Dashdamirov, 1990 d'Azerbaïdjan</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Minniza centralis par Beier en 1952. Elle est placée dans le genre Calocheiridius par Beier en 1959[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Minniza centralis par Beier en 1952. Elle est placée dans le genre Calocheiridius par Beier en 1959.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Beier, 1952 : The 3rd Danish Expedition to Central Asia. Zoological Results 7. Pseudoscorpionidea (Chelicerata) aus Afghanistan. Videnskabelige Meddelelser fra Dansk Naturhistorisk Forening i Kjøbenhavn, vol. 114, p. 245-250.
 Dashdamirov, 1990 : A fauna and zoogeography of Pseudoscorpiones of the Azerbaijan (Arachnida, Pseudoscorpiones). Trudy Zoologicheskogo Instituta, vol. 226, p. 105-110.</t>
